--- a/_data/recource_list.xlsx
+++ b/_data/recource_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/353f90cab10cd109/Documenten/Work-DESKTOP-8V2CDT9/rdm-toolkit/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{191146EF-F505-4547-B871-55E7A17D37A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5E083D37-D271-40A8-85E9-FC4E999C5B63}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="8_{191146EF-F505-4547-B871-55E7A17D37A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6DD5FC16-5F42-49DB-9609-BBECA8A06A52}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{C3B97F62-A39D-4DBC-A677-94D5F0C864A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>link</t>
   </si>
@@ -44,169 +44,28 @@
     <t>description</t>
   </si>
   <si>
-    <t>biotoolsid</t>
-  </si>
-  <si>
     <t>tags</t>
   </si>
   <si>
-    <t>FAIRDOMHub</t>
-  </si>
-  <si>
-    <t>https://fairdomhub.org</t>
-  </si>
-  <si>
-    <t>Data, model and SOPs management for projects, from preliminary data to publication, support for running SBML models etc.</t>
-  </si>
-  <si>
-    <t>DAISY</t>
-  </si>
-  <si>
-    <t>https://daisy-demo.elixir-luxembourg.org</t>
-  </si>
-  <si>
-    <t>Data Information System to keep sensitive data inventory and meet GDPR accountability requirement. </t>
-  </si>
-  <si>
-    <t>plan, collect</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
-    <t>FAIRsharing</t>
-  </si>
-  <si>
-    <t>https://fairsharing.org/</t>
-  </si>
-  <si>
-    <t>A curated, informative and educational resource on data and metadata standards, inter-related to databases and data policies.</t>
-  </si>
-  <si>
-    <t>plan, share, monitoring</t>
-  </si>
-  <si>
-    <t>DS-Wizard</t>
-  </si>
-  <si>
-    <t>https://ds-wizard.org/</t>
-  </si>
-  <si>
-    <t>Data Stewardship Wizard</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>DMPonline</t>
-  </si>
-  <si>
-    <t>https://dmponline.dcc.ac.uk/</t>
-  </si>
-  <si>
-    <t>A free tool to write, share and export a data management plan. Built-in data management plan templates for many major funders.</t>
-  </si>
-  <si>
-    <t>DMPonline Belgium</t>
-  </si>
-  <si>
-    <t>https://dmponline.be</t>
-  </si>
-  <si>
-    <t>A free tool to write, share and export a data management plan. Instance aimed at Belgian researchers with built-in data management plan templates for the major funders.</t>
-  </si>
-  <si>
-    <t>DMP OPIDoR</t>
-  </si>
-  <si>
-    <t>https://dmp.opidor.fr</t>
-  </si>
-  <si>
-    <t>Online questionnaire for the development of data management plans; repository of DMPs</t>
-  </si>
-  <si>
-    <t>DMPlanner</t>
-  </si>
-  <si>
-    <t>https://dmplanner.athenarc.gr/</t>
-  </si>
-  <si>
-    <t>Semi-automatically generated, searchable catalogue of resources that are relevant to data management plans. </t>
-  </si>
-  <si>
-    <t>DMP Canvas Generator</t>
-  </si>
-  <si>
-    <t>https://dmp.vital-it.ch</t>
-  </si>
-  <si>
-    <t>Questionnaire, which generates a pre-filled a DMP</t>
-  </si>
-  <si>
-    <t>COPO</t>
-  </si>
-  <si>
-    <t>https://copo-project.org/</t>
-  </si>
-  <si>
-    <t>Portal for scientists to broker more easily rich metadata alongside data to public repos </t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>BrAPI</t>
-  </si>
-  <si>
-    <t>https://www.brapi.org</t>
-  </si>
-  <si>
-    <t>GitHub</t>
-  </si>
-  <si>
-    <t>https://github.com</t>
-  </si>
-  <si>
-    <t>Versioning system, used for sharing code, as well as for sharing of small data </t>
-  </si>
-  <si>
-    <t>EasyDMP</t>
-  </si>
-  <si>
-    <t>https://easydmp.no/</t>
-  </si>
-  <si>
-    <t>DMP creation, versioning and sharing</t>
-  </si>
-  <si>
-    <t>DMPTuuli</t>
-  </si>
-  <si>
-    <t>https://www.dmptuuli.fi/</t>
-  </si>
-  <si>
-    <t>Data management planning tool</t>
-  </si>
-  <si>
-    <t>Specification for a standard API for plant data: plant material, plant phenotyping data</t>
-  </si>
-  <si>
-    <t>Phyre2</t>
-  </si>
-  <si>
-    <t>collect, process, analyse, share, preserve, storage, privacy</t>
-  </si>
-  <si>
-    <t>process, analyse</t>
-  </si>
-  <si>
-    <t>http://www.sbg.bio.ic.ac.uk/~phyre2</t>
-  </si>
-  <si>
-    <t>Protein Homology/analogY Recognition Engine</t>
-  </si>
-  <si>
-    <t>phyre</t>
+    <t>fairsharingid</t>
+  </si>
+  <si>
+    <t>MIAPPE</t>
+  </si>
+  <si>
+    <t>https://www.miappe.org/</t>
+  </si>
+  <si>
+    <t>Minimum Information About a Plant Phenotyping Experiment</t>
+  </si>
+  <si>
+    <t>nd9ce9</t>
+  </si>
+  <si>
+    <t>standard</t>
   </si>
 </sst>
 </file>
@@ -581,7 +440,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -595,7 +454,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -604,224 +463,70 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>52</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" t="s">
-        <v>53</v>
-      </c>
+      <c r="B16" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{DF25C546-BE4B-446A-96BF-056CCF94994B}">
@@ -830,23 +535,9 @@
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{99F421AF-D6FB-43C5-8C97-DD3F9BD227CF}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{470463E0-2289-486B-A386-96ED591E19AA}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{9A0892F6-6AC6-4EF0-87C3-1A2746929864}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{FCB4F566-FF82-48ED-9BF5-FE51F529D254}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{DCA8E2C3-7C63-47E4-BBA1-C8D30461668C}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{F1AC0AC7-1F37-4CB2-B3CE-CB6325A33310}"/>
-    <hyperlink ref="B5" r:id="rId7" xr:uid="{3A59140E-FB70-4584-AC8D-C44DE70D3B94}"/>
-    <hyperlink ref="B3" r:id="rId8" xr:uid="{BFB80335-C61D-4E09-8763-851E54AFC403}"/>
-    <hyperlink ref="B2" r:id="rId9" xr:uid="{4B56C4F7-A988-4A02-AEB0-E6FB3032D08C}"/>
-    <hyperlink ref="B15" r:id="rId10" xr:uid="{44A4688F-4C13-40E3-B870-425D73F3161E}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{BF73CB1F-A0BF-436D-AFAB-B4A8851106DD}"/>
-    <hyperlink ref="B10" r:id="rId12" xr:uid="{FC038110-0E87-478E-A371-633658B5D905}"/>
-    <hyperlink ref="B4" r:id="rId13" xr:uid="{A214AC83-2F44-4B97-8998-E0D885CDAAA6}"/>
-    <hyperlink ref="B13" r:id="rId14" xr:uid="{68B02575-576B-4029-A17D-0A39176F2C52}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{28B18551-5390-49EC-8DCB-A2E3E2C06495}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{1238C9D2-E63F-40DF-AA7F-B9CCE1D18005}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>